--- a/output/1Y_P91_1VAL-D.xlsx
+++ b/output/1Y_P91_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.2588</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>579.4146</v>
       </c>
-      <c r="G2" s="1">
-        <v>579.4146</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.142400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.2588</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.142400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>16.8469</v>
       </c>
+      <c r="E3" s="1">
+        <v>579.4146</v>
+      </c>
       <c r="F3" s="1">
         <v>593.581</v>
       </c>
-      <c r="G3" s="1">
-        <v>1172.9956</v>
-      </c>
       <c r="H3" s="1">
-        <v>19658.9366</v>
+        <v>9710.756299999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.0504</v>
+        <v>9710.756299999999</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17.2588</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.47</v>
       </c>
-      <c r="L3" s="1">
-        <v>245.0924</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9754.9076</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>245.0924</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19904.029</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0022</v>
+        <v>-0.0289</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>16.9739</v>
       </c>
+      <c r="E4" s="1">
+        <v>1172.9956</v>
+      </c>
       <c r="F4" s="1">
-        <v>590.5837</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1763.5793</v>
+        <v>589.1398</v>
       </c>
       <c r="H4" s="1">
-        <v>29779.4475</v>
+        <v>19806.9687</v>
       </c>
       <c r="I4" s="1">
-        <v>30024.5092</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.0248</v>
+        <v>19806.9687</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.0504</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10024.5092</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>220.5831</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30000.0306</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0032</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.6787</v>
       </c>
+      <c r="E5" s="1">
+        <v>1762.1354</v>
+      </c>
       <c r="F5" s="1">
-        <v>567.0388</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2330.6181</v>
+        <v>565.6525</v>
       </c>
       <c r="H5" s="1">
-        <v>40988.5811</v>
+        <v>30990.6748</v>
       </c>
       <c r="I5" s="1">
-        <v>40049.0185</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.1839</v>
+        <v>30990.6748</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.0248</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10024.5092</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>196.0739</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41184.655</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0296</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.7792</v>
       </c>
+      <c r="E6" s="1">
+        <v>2327.7878</v>
+      </c>
       <c r="F6" s="1">
-        <v>563.8335</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2894.4517</v>
+        <v>562.455</v>
       </c>
       <c r="H6" s="1">
-        <v>51194.1667</v>
+        <v>41171.5832</v>
       </c>
       <c r="I6" s="1">
-        <v>50073.5277</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2998</v>
+        <v>41171.5832</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.1837</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10024.5092</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>171.5647</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51365.7313</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0035</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>18.0055</v>
       </c>
+      <c r="E7" s="1">
+        <v>2890.2428</v>
+      </c>
       <c r="F7" s="1">
-        <v>556.7471</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3451.1987</v>
+        <v>555.3859</v>
       </c>
       <c r="H7" s="1">
-        <v>61818.5619</v>
+        <v>51770.6076</v>
       </c>
       <c r="I7" s="1">
-        <v>60098.0369</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4137</v>
+        <v>51770.6076</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.2996</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10024.5092</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>147.0554</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61965.6173</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0098</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>18.1364</v>
       </c>
+      <c r="E8" s="1">
+        <v>3445.6287</v>
+      </c>
       <c r="F8" s="1">
-        <v>552.7287</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4003.9275</v>
+        <v>551.3773</v>
       </c>
       <c r="H8" s="1">
-        <v>72240.0603</v>
+        <v>62167.0664</v>
       </c>
       <c r="I8" s="1">
-        <v>70122.5462</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5134</v>
+        <v>62167.0664</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.4134</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10024.5092</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>122.5462</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>72362.60649999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0055</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>18.2605</v>
       </c>
+      <c r="E9" s="1">
+        <v>3997.006</v>
+      </c>
       <c r="F9" s="1">
-        <v>548.9723</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4552.8998</v>
+        <v>547.6301</v>
       </c>
       <c r="H9" s="1">
-        <v>82707.06690000001</v>
+        <v>72608.81200000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80147.0554</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6035</v>
+        <v>72608.81200000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.5131</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10024.5092</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>98.0369</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82805.1039</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0054</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>18.0221</v>
       </c>
+      <c r="E10" s="1">
+        <v>4544.6362</v>
+      </c>
       <c r="F10" s="1">
-        <v>556.2342</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5109.134</v>
+        <v>554.8742999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>91599.6204</v>
+        <v>81478.96369999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90171.5647</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6491</v>
+        <v>81478.96369999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6032</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10024.5092</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>73.5277</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>91673.14810000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0122</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>18.2846</v>
       </c>
+      <c r="E11" s="1">
+        <v>5099.5104</v>
+      </c>
       <c r="F11" s="1">
-        <v>548.2488</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5657.3828</v>
+        <v>546.9083000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>102906.6615</v>
+        <v>92759.0751</v>
       </c>
       <c r="I11" s="1">
-        <v>100196.0739</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7107</v>
+        <v>92759.0751</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6488</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10024.5092</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>49.0185</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>102955.68</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0126</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>16.485</v>
       </c>
+      <c r="E12" s="1">
+        <v>5646.4188</v>
+      </c>
       <c r="F12" s="1">
-        <v>608.0988</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6265.4816</v>
+        <v>606.6121000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>102751.3924</v>
+        <v>92599.00930000001</v>
       </c>
       <c r="I12" s="1">
-        <v>110220.5831</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5917</v>
+        <v>92599.00930000001</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>17.7103</v>
+      </c>
+      <c r="M12" s="1">
         <v>1.538</v>
       </c>
-      <c r="L12" s="1">
-        <v>7830.9493</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-2193.56</v>
+        <v>7058.7424</v>
       </c>
       <c r="O12" s="1">
-        <v>7855.4585</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>110606.8509</v>
+        <v>-2941.2576</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0208</v>
+        <v>-0.0989</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>16.9765</v>
       </c>
+      <c r="E13" s="1">
+        <v>6253.0308</v>
+      </c>
       <c r="F13" s="1">
-        <v>1051.775</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7317.2566</v>
+        <v>1004.8445</v>
       </c>
       <c r="H13" s="1">
-        <v>123576.757</v>
+        <v>105603.6861</v>
       </c>
       <c r="I13" s="1">
-        <v>128076.0416</v>
+        <v>7058.7424</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5033</v>
+        <v>112662.4285</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>117058.7424</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.7203</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-17855.4585</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>123576.757</v>
+        <v>-17058.7424</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0246</v>
+        <v>0.09810000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.414</v>
       </c>
+      <c r="E14" s="1">
+        <v>7257.8753</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7317.2566</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6253.0308</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125733.2548</v>
       </c>
       <c r="I14" s="1">
-        <v>128076.0416</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5033</v>
+        <v>125733.2548</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>117058.7424</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1285</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>126761.9588</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>126761.9588</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126761.9588</v>
+        <v>108325.6304</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.051</v>
+        <v>0.025</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.2588</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>579.4146</v>
       </c>
       <c r="G2" s="1">
-        <v>579.4146</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.142400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.2588</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.142400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>16.8469</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>579.4146</v>
       </c>
       <c r="F3" s="1">
         <v>593.581</v>
       </c>
       <c r="G3" s="1">
-        <v>1172.9956</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19658.9366</v>
+        <v>9710.756299999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.0504</v>
+        <v>9710.756299999999</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17.2588</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.47</v>
       </c>
-      <c r="L3" s="1">
-        <v>245.0924</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9754.9076</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>245.0924</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19904.029</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0022</v>
+        <v>-0.0289</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>16.9739</v>
       </c>
       <c r="E4" s="1">
+        <v>1172.9956</v>
+      </c>
+      <c r="F4" s="1">
+        <v>589.1398</v>
+      </c>
+      <c r="G4" s="1">
         <v>30000</v>
       </c>
-      <c r="F4" s="1">
-        <v>603.6452</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1776.6407</v>
-      </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>19806.9687</v>
       </c>
       <c r="I4" s="1">
-        <v>30246.2125</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.0244</v>
+        <v>19806.9687</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.0504</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10246.2125</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>-1.1201</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29998.8799</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0032</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.6787</v>
       </c>
       <c r="E5" s="1">
+        <v>1762.1354</v>
+      </c>
+      <c r="F5" s="1">
+        <v>512.2719</v>
+      </c>
+      <c r="G5" s="1">
         <v>40000</v>
       </c>
-      <c r="F5" s="1">
-        <v>497.7665</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2274.4072</v>
-      </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30990.6748</v>
       </c>
       <c r="I5" s="1">
-        <v>39046.0772</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.1676</v>
+        <v>30990.6748</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29056.3006</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.4893</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-8799.8647</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>1199.0152</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41199.0152</v>
+        <v>-9056.3006</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.03</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.7792</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2274.4072</v>
       </c>
       <c r="F6" s="1">
         <v>552.5278</v>
       </c>
       <c r="G6" s="1">
-        <v>2826.935</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>40227.4407</v>
       </c>
       <c r="I6" s="1">
-        <v>48869.5795</v>
+        <v>943.6994</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2871</v>
+        <v>41171.1402</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38879.8029</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.0945</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9823.5023</v>
       </c>
-      <c r="O6" s="1">
-        <v>1375.5128</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51375.5128</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0034</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>18.0055</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2826.935</v>
       </c>
       <c r="F7" s="1">
         <v>522.7373</v>
       </c>
       <c r="G7" s="1">
-        <v>3349.6723</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>50636.6258</v>
       </c>
       <c r="I7" s="1">
-        <v>58281.7251</v>
+        <v>1120.1971</v>
       </c>
       <c r="J7" s="1">
-        <v>17.3992</v>
+        <v>51756.8229</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48291.9485</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.0828</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9412.1456</v>
       </c>
-      <c r="O7" s="1">
-        <v>1963.3672</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61963.3672</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.009599999999999999</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>18.1364</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3349.6723</v>
       </c>
       <c r="F8" s="1">
         <v>530.0991</v>
       </c>
       <c r="G8" s="1">
-        <v>3879.7714</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>60435.7924</v>
       </c>
       <c r="I8" s="1">
-        <v>67895.81510000001</v>
+        <v>1708.0515</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5</v>
+        <v>62143.8439</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57906.0385</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.2871</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9614.09</v>
       </c>
-      <c r="O8" s="1">
-        <v>2349.2773</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72349.2773</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0054</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>18.2605</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3879.7714</v>
       </c>
       <c r="F9" s="1">
         <v>524.1084</v>
       </c>
       <c r="G9" s="1">
-        <v>4403.8798</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>70479.15180000001</v>
       </c>
       <c r="I9" s="1">
-        <v>77466.29640000001</v>
+        <v>2093.9615</v>
       </c>
       <c r="J9" s="1">
-        <v>17.5905</v>
+        <v>72573.1133</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67476.51979999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.3919</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9570.481299999999</v>
       </c>
-      <c r="O9" s="1">
-        <v>2778.796</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82778.796</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0052</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>18.0221</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4403.8798</v>
       </c>
       <c r="F10" s="1">
         <v>616.0325</v>
       </c>
       <c r="G10" s="1">
-        <v>5019.9123</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>78955.39969999999</v>
       </c>
       <c r="I10" s="1">
-        <v>88568.4957</v>
+        <v>2523.4802</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6434</v>
+        <v>81478.8799</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78578.7191</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8431</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11102.1993</v>
       </c>
-      <c r="O10" s="1">
-        <v>1676.5966</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91676.5966</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0119</v>
+        <v>-0.0133</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>18.2846</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5019.9123</v>
       </c>
       <c r="F11" s="1">
         <v>477.6742</v>
       </c>
       <c r="G11" s="1">
-        <v>5497.5866</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>91311.20110000001</v>
       </c>
       <c r="I11" s="1">
-        <v>97302.5781</v>
+        <v>1421.2809</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6991</v>
+        <v>92732.482</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>87312.8015</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.3933</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-8734.082399999999</v>
       </c>
-      <c r="O11" s="1">
-        <v>2942.5142</v>
-      </c>
-      <c r="P11" s="1">
-        <v>102942.5142</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0125</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>16.485</v>
       </c>
       <c r="E12" s="1">
+        <v>5497.5866</v>
+      </c>
+      <c r="F12" s="1">
+        <v>769.6208</v>
+      </c>
+      <c r="G12" s="1">
         <v>110000</v>
       </c>
-      <c r="F12" s="1">
-        <v>785.1085</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6282.6951</v>
-      </c>
       <c r="H12" s="1">
-        <v>103033.6865</v>
+        <v>90158.2205</v>
       </c>
       <c r="I12" s="1">
-        <v>110245.0924</v>
+        <v>2687.1985</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5474</v>
+        <v>92845.41899999999</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>18.1898</v>
+      </c>
+      <c r="M12" s="1">
         <v>1.538</v>
       </c>
-      <c r="L12" s="1">
-        <v>7609.7593</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-5332.7549</v>
+        <v>6948.5626</v>
       </c>
       <c r="O12" s="1">
-        <v>7609.7593</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>110643.4458</v>
+        <v>-5738.6359</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0204</v>
+        <v>-0.09619999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>16.9765</v>
       </c>
       <c r="E13" s="1">
+        <v>6267.2073</v>
+      </c>
+      <c r="F13" s="1">
+        <v>838.2615</v>
+      </c>
+      <c r="G13" s="1">
         <v>120000</v>
       </c>
-      <c r="F13" s="1">
-        <v>822.7737</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7105.4688</v>
-      </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>105843.1044</v>
       </c>
       <c r="I13" s="1">
-        <v>124212.9109</v>
+        <v>6948.5626</v>
       </c>
       <c r="J13" s="1">
-        <v>17.4813</v>
+        <v>112791.667</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>114230.7465</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.2267</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-13967.8185</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>3641.9408</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>123641.9408</v>
+        <v>-14230.7465</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0249</v>
+        <v>0.09669999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.414</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7105.4688</v>
       </c>
       <c r="F14" s="1">
         <v>-7105.4688</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123093.0106</v>
       </c>
       <c r="I14" s="1">
-        <v>124212.9109</v>
+        <v>2717.8161</v>
       </c>
       <c r="J14" s="1">
-        <v>17.4813</v>
+        <v>125810.8267</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>114230.7465</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0765</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>123093.0106</v>
       </c>
-      <c r="O14" s="1">
-        <v>126734.9514</v>
-      </c>
-      <c r="P14" s="1">
-        <v>126734.9514</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0517</v>
+        <v>0.0246</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.2588</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>579.4146</v>
       </c>
       <c r="G2" s="1">
-        <v>579.4146</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.142400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.2588</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.142400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>16.8469</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>579.4146</v>
       </c>
       <c r="F3" s="1">
         <v>593.581</v>
       </c>
       <c r="G3" s="1">
-        <v>1172.9956</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19658.9366</v>
+        <v>9710.756299999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.0504</v>
+        <v>9710.756299999999</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17.2588</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.47</v>
       </c>
-      <c r="L3" s="1">
-        <v>245.0924</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9754.9076</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>245.0924</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19904.029</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0022</v>
+        <v>-0.0289</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>16.9739</v>
       </c>
       <c r="E4" s="1">
+        <v>1172.9956</v>
+      </c>
+      <c r="F4" s="1">
+        <v>589.1398</v>
+      </c>
+      <c r="G4" s="1">
         <v>30150.25</v>
       </c>
-      <c r="F4" s="1">
-        <v>603.5792</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1776.5747</v>
-      </c>
       <c r="H4" s="1">
-        <v>29998.8857</v>
+        <v>19806.9687</v>
       </c>
       <c r="I4" s="1">
-        <v>30245.0924</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.0244</v>
+        <v>19806.9687</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.0504</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10245.0924</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29998.8857</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0032</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.6787</v>
       </c>
       <c r="E5" s="1">
+        <v>1762.1354</v>
+      </c>
+      <c r="F5" s="1">
+        <v>529.3868</v>
+      </c>
+      <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
-      <c r="F5" s="1">
-        <v>514.9475</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2291.5222</v>
-      </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30990.6748</v>
       </c>
       <c r="I5" s="1">
-        <v>39348.6944</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.1714</v>
+        <v>30990.6748</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29358.8712</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.661</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-9103.602000000001</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>896.398</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41197.3992</v>
+        <v>-9358.8712</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.03</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.7792</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2291.5222</v>
       </c>
       <c r="F6" s="1">
         <v>563.8239</v>
       </c>
       <c r="G6" s="1">
-        <v>2855.3461</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>40530.1535</v>
       </c>
       <c r="I6" s="1">
-        <v>49373.0317</v>
+        <v>641.1288</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2914</v>
+        <v>41171.2822</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39383.2086</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.1865</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10024.3373</v>
       </c>
-      <c r="O6" s="1">
-        <v>872.0606</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51374.5669</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0035</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>18.0055</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2855.3461</v>
       </c>
       <c r="F7" s="1">
         <v>536.4773</v>
       </c>
       <c r="G7" s="1">
-        <v>3391.8234</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>51145.5302</v>
       </c>
       <c r="I7" s="1">
-        <v>59032.5737</v>
+        <v>616.7914</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4044</v>
+        <v>51762.3216</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49042.7505</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.1758</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9659.5419</v>
       </c>
-      <c r="O7" s="1">
-        <v>1212.5187</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61967.5375</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0097</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>18.1364</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3391.8234</v>
       </c>
       <c r="F8" s="1">
         <v>546.6319999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>3938.4554</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>61196.295</v>
       </c>
       <c r="I8" s="1">
-        <v>68946.51059999999</v>
+        <v>957.2495</v>
       </c>
       <c r="J8" s="1">
-        <v>17.506</v>
+        <v>62153.5445</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58956.6875</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.382</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9913.936900000001</v>
       </c>
-      <c r="O8" s="1">
-        <v>1298.5818</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72357.3756</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0054</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>18.2605</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3938.4554</v>
       </c>
       <c r="F9" s="1">
         <v>543.2678</v>
       </c>
       <c r="G9" s="1">
-        <v>4481.7232</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>71545.1931</v>
       </c>
       <c r="I9" s="1">
-        <v>78866.85279999999</v>
+        <v>1043.3125</v>
       </c>
       <c r="J9" s="1">
-        <v>17.5974</v>
+        <v>72588.50569999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68877.0297</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.4883</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9920.342199999999</v>
       </c>
-      <c r="O9" s="1">
-        <v>1378.2396</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82792.32739999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0053</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>18.0221</v>
       </c>
       <c r="E10" s="1">
+        <v>4481.7232</v>
+      </c>
+      <c r="F10" s="1">
+        <v>617.1849999999999</v>
+      </c>
+      <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
-      <c r="F10" s="1">
-        <v>631.3493</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5113.0725</v>
-      </c>
       <c r="H10" s="1">
-        <v>91670.23149999999</v>
+        <v>80351.02310000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90245.09239999999</v>
+        <v>1122.9703</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6499</v>
+        <v>81473.99340000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8503</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-11378.2396</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>91670.23149999999</v>
+        <v>-11122.9703</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0121</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>18.2846</v>
       </c>
       <c r="E11" s="1">
+        <v>5098.9083</v>
+      </c>
+      <c r="F11" s="1">
+        <v>524.0377999999999</v>
+      </c>
+      <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
-      <c r="F11" s="1">
-        <v>509.8736</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5622.9461</v>
-      </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>92748.12149999999</v>
       </c>
       <c r="I11" s="1">
-        <v>99567.9264</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7074</v>
+        <v>92748.12149999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>89581.8214</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.5688</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-9322.834000000001</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>677.1660000000001</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>102957.43</v>
+        <v>-9581.821400000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0127</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>16.485</v>
       </c>
       <c r="E12" s="1">
+        <v>5622.9461</v>
+      </c>
+      <c r="F12" s="1">
+        <v>631.9793</v>
+      </c>
+      <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
-      <c r="F12" s="1">
-        <v>647.6898</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6270.6358</v>
-      </c>
       <c r="H12" s="1">
-        <v>102835.9193</v>
+        <v>92214.0661</v>
       </c>
       <c r="I12" s="1">
-        <v>110245.0924</v>
+        <v>418.1786</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5812</v>
+        <v>92632.2447</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>17.7843</v>
+      </c>
+      <c r="M12" s="1">
         <v>1.538</v>
       </c>
-      <c r="L12" s="1">
-        <v>7783.2819</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-2893.884</v>
+        <v>7057.9088</v>
       </c>
       <c r="O12" s="1">
-        <v>7783.2819</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>110619.2012</v>
+        <v>-3360.2698</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0207</v>
+        <v>-0.0985</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>16.9765</v>
       </c>
       <c r="E13" s="1">
+        <v>6254.9253</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1004.7954</v>
+      </c>
+      <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
-      <c r="F13" s="1">
-        <v>1033.527</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7304.1628</v>
-      </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>105635.6812</v>
       </c>
       <c r="I13" s="1">
-        <v>127790.7637</v>
+        <v>7057.9088</v>
       </c>
       <c r="J13" s="1">
-        <v>17.4956</v>
+        <v>112693.59</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>117057.9088</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.7145</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-17545.6714</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>237.6106</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>123593.2343</v>
+        <v>-17057.9088</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0247</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>17.414</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7259.7207</v>
       </c>
       <c r="F14" s="1">
-        <v>-7304.1628</v>
+        <v>-7259.7207</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125765.2239</v>
       </c>
       <c r="I14" s="1">
-        <v>127790.7637</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.4956</v>
+        <v>125765.2239</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>117057.9088</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1243</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>126535.1258</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>126772.7364</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126772.7364</v>
+        <v>125765.2239</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0511</v>
+        <v>0.025</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.2588</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>579.4146</v>
       </c>
       <c r="G2" s="1">
-        <v>579.4146</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.142400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.2588</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.142400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>16.8469</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>579.4146</v>
       </c>
       <c r="F3" s="1">
         <v>593.581</v>
       </c>
       <c r="G3" s="1">
-        <v>1172.9956</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19658.9366</v>
+        <v>9710.756299999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.0504</v>
+        <v>9710.756299999999</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17.2588</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.47</v>
       </c>
-      <c r="L3" s="1">
-        <v>245.0924</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9754.9076</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>245.0924</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19904.029</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0022</v>
+        <v>-0.0289</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>16.9739</v>
       </c>
       <c r="E4" s="1">
+        <v>1172.9956</v>
+      </c>
+      <c r="F4" s="1">
+        <v>589.1398</v>
+      </c>
+      <c r="G4" s="1">
         <v>30301</v>
       </c>
-      <c r="F4" s="1">
-        <v>603.5792</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1776.5747</v>
-      </c>
       <c r="H4" s="1">
-        <v>29998.8857</v>
+        <v>19806.9687</v>
       </c>
       <c r="I4" s="1">
-        <v>30245.0924</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.0244</v>
+        <v>19806.9687</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.0504</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10245.0924</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29998.8857</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0032</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.6787</v>
       </c>
       <c r="E5" s="1">
+        <v>1762.1354</v>
+      </c>
+      <c r="F5" s="1">
+        <v>546.616</v>
+      </c>
+      <c r="G5" s="1">
         <v>40604.01</v>
       </c>
-      <c r="F5" s="1">
-        <v>532.1766</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2308.7514</v>
-      </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30990.6748</v>
       </c>
       <c r="I5" s="1">
-        <v>39653.283</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.1752</v>
+        <v>30990.6748</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29663.4599</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.8338</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-9408.190699999999</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>591.8093</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41195.8193</v>
+        <v>-9663.4599</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0299</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.7792</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2308.7514</v>
       </c>
       <c r="F6" s="1">
         <v>575.2906</v>
       </c>
       <c r="G6" s="1">
-        <v>2884.042</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>40834.8851</v>
       </c>
       <c r="I6" s="1">
-        <v>49881.4898</v>
+        <v>336.5401</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2957</v>
+        <v>41171.4252</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39891.6667</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.2785</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10228.2068</v>
       </c>
-      <c r="O6" s="1">
-        <v>363.6026</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51373.6527</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0035</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>18.0055</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2884.042</v>
       </c>
       <c r="F7" s="1">
         <v>550.4971</v>
       </c>
       <c r="G7" s="1">
-        <v>3434.5391</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>51659.5363</v>
       </c>
       <c r="I7" s="1">
-        <v>59793.4654</v>
+        <v>108.3333</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4095</v>
+        <v>51767.8697</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49803.6423</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.2687</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9911.9756</v>
       </c>
-      <c r="O7" s="1">
-        <v>451.6269</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61971.7775</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0097</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>18.1364</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3434.5391</v>
       </c>
       <c r="F8" s="1">
         <v>563.5848999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>3998.124</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>61966.9841</v>
       </c>
       <c r="I8" s="1">
-        <v>70014.8667</v>
+        <v>196.3577</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5119</v>
+        <v>62163.3418</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60025.0436</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.4769</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10221.4013</v>
       </c>
-      <c r="O8" s="1">
-        <v>230.2256</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72365.57769999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0055</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>18.2605</v>
       </c>
       <c r="E9" s="1">
+        <v>3998.124</v>
+      </c>
+      <c r="F9" s="1">
+        <v>546.2587</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>563.0132</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4561.1372</v>
-      </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>72629.1204</v>
       </c>
       <c r="I9" s="1">
-        <v>80295.7693</v>
+        <v>-25.0436</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6043</v>
+        <v>72604.0768</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.5082</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10280.9026</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>-50.6769</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82806.0287</v>
+        <v>-9974.956399999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0053</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>18.0221</v>
       </c>
       <c r="E10" s="1">
+        <v>4544.3826</v>
+      </c>
+      <c r="F10" s="1">
+        <v>554.8742999999999</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>552.0624</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5113.1995</v>
-      </c>
       <c r="H10" s="1">
-        <v>91672.5091</v>
+        <v>81474.4185</v>
       </c>
       <c r="I10" s="1">
-        <v>90245.09239999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6494</v>
+        <v>81474.4185</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6042</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-9949.3231</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>91672.5091</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0122</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>18.2846</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5099.2569</v>
       </c>
       <c r="F11" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5660.1079</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>102956.2299</v>
+        <v>92754.46369999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100245.0924</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7108</v>
+        <v>92754.46369999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6496</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>102956.2299</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0126</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>16.485</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5646.1653</v>
       </c>
       <c r="F12" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>6266.7199</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>102771.7002</v>
+        <v>92594.8518</v>
       </c>
       <c r="I12" s="1">
-        <v>110245.0924</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5922</v>
+        <v>92594.8518</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>17.7111</v>
+      </c>
+      <c r="M12" s="1">
         <v>1.538</v>
       </c>
-      <c r="L12" s="1">
-        <v>7834.7213</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-2165.2787</v>
+        <v>7058.3914</v>
       </c>
       <c r="O12" s="1">
-        <v>7834.7213</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>110606.4215</v>
+        <v>-2941.6086</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0208</v>
+        <v>-0.0989</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>16.9765</v>
       </c>
       <c r="E13" s="1">
+        <v>6252.7773</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1004.8238</v>
+      </c>
+      <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
-      <c r="F13" s="1">
-        <v>1050.5535</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7317.2734</v>
-      </c>
       <c r="H13" s="1">
-        <v>123577.0404</v>
+        <v>105599.4046</v>
       </c>
       <c r="I13" s="1">
-        <v>128079.8137</v>
+        <v>7058.3914</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5038</v>
+        <v>112657.7961</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>117058.3914</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.721</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-17834.7213</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>123577.0404</v>
+        <v>-17058.3914</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0246</v>
+        <v>0.09810000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>17.414</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7257.6011</v>
       </c>
       <c r="F14" s="1">
-        <v>-7317.2734</v>
+        <v>-7257.6011</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125728.5049</v>
       </c>
       <c r="I14" s="1">
-        <v>128079.8137</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5038</v>
+        <v>125728.5049</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>117058.3914</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1291</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>126762.2495</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>126762.2495</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126762.2495</v>
+        <v>125728.5049</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.051</v>
+        <v>0.025</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.2588</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>579.4146</v>
       </c>
       <c r="G2" s="1">
-        <v>579.4146</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.142400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.2588</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.142400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>16.8469</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>579.4146</v>
       </c>
       <c r="F3" s="1">
         <v>593.581</v>
       </c>
       <c r="G3" s="1">
-        <v>1172.9956</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19658.9366</v>
+        <v>9710.756299999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.0504</v>
+        <v>9710.756299999999</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17.2588</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.47</v>
       </c>
-      <c r="L3" s="1">
-        <v>245.0924</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9754.9076</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>245.0924</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19904.029</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0022</v>
+        <v>-0.0289</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>16.9739</v>
       </c>
       <c r="E4" s="1">
+        <v>1172.9956</v>
+      </c>
+      <c r="F4" s="1">
+        <v>589.1398</v>
+      </c>
+      <c r="G4" s="1">
         <v>30452.25</v>
       </c>
-      <c r="F4" s="1">
-        <v>603.5792</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1776.5747</v>
-      </c>
       <c r="H4" s="1">
-        <v>29998.8857</v>
+        <v>19806.9687</v>
       </c>
       <c r="I4" s="1">
-        <v>30245.0924</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.0244</v>
+        <v>19806.9687</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.0504</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10245.0924</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29998.8857</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0032</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.6787</v>
       </c>
       <c r="E5" s="1">
+        <v>1762.1354</v>
+      </c>
+      <c r="F5" s="1">
+        <v>563.9597</v>
+      </c>
+      <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
-      <c r="F5" s="1">
-        <v>549.5203</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2326.0951</v>
-      </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>30990.6748</v>
       </c>
       <c r="I5" s="1">
-        <v>39959.8972</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.179</v>
+        <v>30990.6748</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29970.0741</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.0078</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-9714.804899999999</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>285.1951</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41194.2289</v>
+        <v>-9970.0741</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0299</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.7792</v>
       </c>
       <c r="E6" s="1">
+        <v>2326.0951</v>
+      </c>
+      <c r="F6" s="1">
+        <v>564.1382</v>
+      </c>
+      <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
-      <c r="F6" s="1">
-        <v>578.4959</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2904.591</v>
-      </c>
       <c r="H6" s="1">
-        <v>51373.5011</v>
+        <v>41141.6433</v>
       </c>
       <c r="I6" s="1">
-        <v>50245.0924</v>
+        <v>29.9259</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2985</v>
+        <v>41171.5692</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.1962</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10285.1951</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51373.5011</v>
+        <v>-10029.9259</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0035</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>18.0055</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2890.2333</v>
       </c>
       <c r="F7" s="1">
         <v>555.3859</v>
       </c>
       <c r="G7" s="1">
-        <v>3459.9769</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>61975.7975</v>
+        <v>51770.4362</v>
       </c>
       <c r="I7" s="1">
-        <v>60245.0924</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.412</v>
+        <v>51770.4362</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.2996</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61975.7975</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0098</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>18.1364</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3445.6191</v>
       </c>
       <c r="F8" s="1">
         <v>551.3773</v>
       </c>
       <c r="G8" s="1">
-        <v>4011.3542</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>72374.05590000001</v>
+        <v>62166.8937</v>
       </c>
       <c r="I8" s="1">
-        <v>70245.09239999999</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5116</v>
+        <v>62166.8937</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.4134</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72374.05590000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0055</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>18.2605</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3996.9965</v>
       </c>
       <c r="F9" s="1">
         <v>547.6301</v>
       </c>
       <c r="G9" s="1">
-        <v>4558.9843</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>82817.5975</v>
+        <v>72608.6382</v>
       </c>
       <c r="I9" s="1">
-        <v>80245.09239999999</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6015</v>
+        <v>72608.6382</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.5132</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82817.5975</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0054</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>18.0221</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4544.6266</v>
       </c>
       <c r="F10" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5113.8586</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>91684.3257</v>
+        <v>81478.7922</v>
       </c>
       <c r="I10" s="1">
-        <v>90245.09239999999</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6472</v>
+        <v>81478.7922</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6032</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91684.3257</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0122</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>18.2846</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5099.5009</v>
       </c>
       <c r="F11" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5660.7669</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>102968.2187</v>
+        <v>92758.9011</v>
       </c>
       <c r="I11" s="1">
-        <v>100245.0924</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7087</v>
+        <v>92758.9011</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6488</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>102968.2187</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0126</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>16.485</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5646.4092</v>
       </c>
       <c r="F12" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>6267.379</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>102782.509</v>
+        <v>92598.8524</v>
       </c>
       <c r="I12" s="1">
-        <v>110245.0924</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5903</v>
+        <v>92598.8524</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>17.7104</v>
+      </c>
+      <c r="M12" s="1">
         <v>1.538</v>
       </c>
-      <c r="L12" s="1">
-        <v>7835.6336</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-2164.3664</v>
+        <v>7058.7291</v>
       </c>
       <c r="O12" s="1">
-        <v>7835.6336</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>110618.1426</v>
+        <v>-2941.2709</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0208</v>
+        <v>-0.0989</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>16.9765</v>
       </c>
       <c r="E13" s="1">
+        <v>6253.0213</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1004.8437</v>
+      </c>
+      <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
-      <c r="F13" s="1">
-        <v>1050.6072</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7317.9862</v>
-      </c>
       <c r="H13" s="1">
-        <v>123589.079</v>
+        <v>105603.5245</v>
       </c>
       <c r="I13" s="1">
-        <v>128080.726</v>
+        <v>7058.7291</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5022</v>
+        <v>112662.2536</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>117058.7291</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.7203</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-17835.6336</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>123589.079</v>
+        <v>-17058.7291</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0246</v>
+        <v>0.09810000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>17.414</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7257.865</v>
       </c>
       <c r="F14" s="1">
-        <v>-7317.9862</v>
+        <v>-7257.865</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125733.0755</v>
       </c>
       <c r="I14" s="1">
-        <v>128080.726</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5022</v>
+        <v>125733.0755</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>117058.7291</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1285</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>126774.5984</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>126774.5984</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126774.5984</v>
+        <v>125733.0755</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.051</v>
+        <v>0.025</v>
       </c>
     </row>
   </sheetData>
@@ -4481,7 +4454,7 @@
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.3671</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.5033</v>
+        <v>16.1285</v>
       </c>
       <c r="D3" s="1">
-        <v>17.4813</v>
+        <v>16.0765</v>
       </c>
       <c r="E3" s="1">
-        <v>17.4956</v>
+        <v>16.1243</v>
       </c>
       <c r="F3" s="1">
-        <v>17.5038</v>
+        <v>16.1291</v>
       </c>
       <c r="G3" s="1">
-        <v>17.5022</v>
+        <v>16.1285</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.0164</v>
       </c>
       <c r="C4" s="3">
-        <v>0.008</v>
+        <v>0.0689</v>
       </c>
       <c r="D4" s="3">
-        <v>0.008</v>
+        <v>0.0692</v>
       </c>
       <c r="E4" s="3">
-        <v>0.008200000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0081</v>
+        <v>0.0688</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0083</v>
+        <v>0.0689</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1193</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0707</v>
+        <v>0.1506</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0712</v>
+        <v>0.1478</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0708</v>
+        <v>0.1503</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0709</v>
+        <v>0.1506</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0709</v>
+        <v>0.1506</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.0329</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.1736</v>
+        <v>0.3225</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.1737</v>
+        <v>0.331</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.1709</v>
+        <v>0.3242</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.1719</v>
+        <v>0.3219</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.1695</v>
+        <v>0.3225</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1069</v>
+        <v>-0.1761</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1089</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1079</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>0.107</v>
+        <v>0.0902</v>
       </c>
       <c r="G7" s="3">
-        <v>0.107</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>8076.0416</v>
+        <v>7058.7424</v>
       </c>
       <c r="D8" s="1">
-        <v>7854.8517</v>
+        <v>6948.5626</v>
       </c>
       <c r="E8" s="1">
-        <v>8028.3743</v>
+        <v>7057.9088</v>
       </c>
       <c r="F8" s="1">
-        <v>8079.8137</v>
+        <v>7058.3914</v>
       </c>
       <c r="G8" s="1">
-        <v>8080.726</v>
+        <v>7058.7291</v>
       </c>
     </row>
   </sheetData>
